--- a/Story/3 - Psyche Deepdive/6 - One Step Away/One Step Away.xlsx
+++ b/Story/3 - Psyche Deepdive/6 - One Step Away/One Step Away.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\6 - One Step Away\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF82EBC-9589-4F8C-998D-67868B1FB5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E43BD2-5FC5-407D-8E1B-D63DB0D7754A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{55419FE5-7E6D-4485-9D36-D2CAFE76204E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{55419FE5-7E6D-4485-9D36-D2CAFE76204E}"/>
   </bookViews>
   <sheets>
     <sheet name="GRamona Deepdive" sheetId="1" r:id="rId1"/>
@@ -11764,9 +11764,6 @@
     <t>あなたは一歩前に進み、別の時空へと踏み入れました。</t>
   </si>
   <si>
-    <t>당신은 한 걸음 앞으로 나아가 다른 차원으로 들어갔습니다.</t>
-  </si>
-  <si>
     <t>Tu avances d'un pas, entrant dans une autre dimension</t>
   </si>
   <si>
@@ -12152,13 +12149,16 @@
   </si>
   <si>
     <t>aScd</t>
+  </si>
+  <si>
+    <t>당신은 한 걸음 앞으로 나아가, 다른 차원 속으로 들어갔다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12180,6 +12180,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -12205,10 +12211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -12222,9 +12229,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3625FAB2-02FA-4160-9AA5-0CFA6EC6F257}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12439,69 +12450,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E65591-E46B-4D66-B362-6836675D97EE}">
   <dimension ref="A1:S335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3934</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>3935</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3936</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3937</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3938</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3939</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3940</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3941</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3942</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>3943</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>3944</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>3945</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>3946</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>3947</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>3948</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>3949</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>3950</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>3951</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>3952</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12538,7 +12550,7 @@
       <c r="L2" t="s">
         <v>3884</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>3885</v>
       </c>
       <c r="N2" t="s">
@@ -12594,34 +12606,34 @@
       <c r="L3" t="s">
         <v>3899</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>4029</v>
+      </c>
+      <c r="N3" t="s">
         <v>3900</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>3901</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>3902</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>3903</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>3904</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>3905</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3906</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B4" t="s">
         <v>3907</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3908</v>
       </c>
       <c r="C4" t="s">
         <v>3877</v>
@@ -12633,51 +12645,51 @@
         <v>3878</v>
       </c>
       <c r="F4" t="s">
+        <v>3908</v>
+      </c>
+      <c r="H4" t="s">
         <v>3909</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>3910</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>3911</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>3912</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>3913</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="5" t="s">
         <v>3914</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>3915</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>3916</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>3917</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>3918</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>3919</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>3920</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3921</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B5" t="s">
         <v>3922</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3923</v>
       </c>
       <c r="C5" t="s">
         <v>3877</v>
@@ -12706,7 +12718,7 @@
       <c r="L5" t="s">
         <v>3884</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>3885</v>
       </c>
       <c r="N5" t="s">
@@ -12730,10 +12742,10 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B6" t="s">
         <v>3924</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3925</v>
       </c>
       <c r="C6" t="s">
         <v>3877</v>
@@ -12762,34 +12774,34 @@
       <c r="L6" t="s">
         <v>3899</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>4029</v>
+      </c>
+      <c r="N6" t="s">
         <v>3900</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>3901</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>3902</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>3903</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>3904</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>3905</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3906</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B7" t="s">
         <v>3926</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3927</v>
       </c>
       <c r="C7" t="s">
         <v>3877</v>
@@ -12801,51 +12813,51 @@
         <v>3878</v>
       </c>
       <c r="F7" t="s">
+        <v>3908</v>
+      </c>
+      <c r="H7" t="s">
         <v>3909</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>3910</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>3911</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>3912</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>3913</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="5" t="s">
         <v>3914</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>3915</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>3916</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>3917</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>3918</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>3919</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>3920</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3921</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B8" t="s">
         <v>3928</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3929</v>
       </c>
       <c r="C8" t="s">
         <v>3877</v>
@@ -12874,7 +12886,7 @@
       <c r="L8" t="s">
         <v>3884</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
         <v>3885</v>
       </c>
       <c r="N8" t="s">
@@ -12898,10 +12910,10 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B9" t="s">
         <v>3930</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3931</v>
       </c>
       <c r="C9" t="s">
         <v>3877</v>
@@ -12930,34 +12942,34 @@
       <c r="L9" t="s">
         <v>3899</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>4029</v>
+      </c>
+      <c r="N9" t="s">
         <v>3900</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>3901</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>3902</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>3903</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>3904</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>3905</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3906</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B10" t="s">
         <v>3932</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3933</v>
       </c>
       <c r="C10" t="s">
         <v>3877</v>
@@ -12969,61 +12981,61 @@
         <v>3878</v>
       </c>
       <c r="F10" t="s">
+        <v>3908</v>
+      </c>
+      <c r="H10" t="s">
         <v>3909</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>3910</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>3911</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>3912</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>3913</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="5" t="s">
         <v>3914</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>3915</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>3916</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>3917</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>3918</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>3919</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>3920</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3921</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B12" t="s">
         <v>3953</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>3954</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3955</v>
       </c>
       <c r="D12">
         <v>1774</v>
       </c>
       <c r="E12" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F12" t="s">
         <v>3879</v>
@@ -13032,7 +13044,7 @@
         <v>3872</v>
       </c>
       <c r="I12" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J12" t="s">
         <v>3870</v>
@@ -13067,58 +13079,58 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B13" t="s">
         <v>3958</v>
       </c>
-      <c r="B13" t="s">
-        <v>3959</v>
-      </c>
       <c r="C13" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D13">
         <v>1774</v>
       </c>
       <c r="E13" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F13" t="s">
         <v>3894</v>
       </c>
       <c r="H13" t="s">
+        <v>3959</v>
+      </c>
+      <c r="I13" t="s">
         <v>3960</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>3961</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>3962</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>3963</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>3964</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>3965</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>3966</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>3967</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>3968</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>3969</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>3970</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3971</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15505,19 +15517,19 @@
     </row>
     <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B56" t="s">
         <v>3972</v>
       </c>
-      <c r="B56" t="s">
-        <v>3973</v>
-      </c>
       <c r="C56" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D56">
         <v>1775</v>
       </c>
       <c r="E56" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F56" t="s">
         <v>3879</v>
@@ -15526,7 +15538,7 @@
         <v>3333</v>
       </c>
       <c r="I56" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="J56" t="s">
         <v>3331</v>
@@ -15561,75 +15573,75 @@
     </row>
     <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B57" t="s">
         <v>3975</v>
       </c>
-      <c r="B57" t="s">
-        <v>3976</v>
-      </c>
       <c r="C57" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D57">
         <v>1775</v>
       </c>
       <c r="E57" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F57" t="s">
         <v>3894</v>
       </c>
       <c r="H57" t="s">
+        <v>3976</v>
+      </c>
+      <c r="I57" t="s">
         <v>3977</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>3978</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>3979</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>3980</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>3981</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>3982</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>3983</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>3984</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>3985</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>3986</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>3987</v>
-      </c>
-      <c r="S57" t="s">
-        <v>3988</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B58" t="s">
         <v>4022</v>
       </c>
-      <c r="B58" t="s">
-        <v>4023</v>
-      </c>
       <c r="C58" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D58">
         <v>1778</v>
       </c>
       <c r="E58" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F58" t="s">
         <v>3879</v>
@@ -15638,7 +15650,7 @@
         <v>3333</v>
       </c>
       <c r="I58" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="J58" t="s">
         <v>3331</v>
@@ -15673,75 +15685,75 @@
     </row>
     <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B59" t="s">
         <v>4024</v>
       </c>
-      <c r="B59" t="s">
-        <v>4025</v>
-      </c>
       <c r="C59" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D59">
         <v>1778</v>
       </c>
       <c r="E59" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F59" t="s">
         <v>3894</v>
       </c>
       <c r="H59" t="s">
+        <v>3976</v>
+      </c>
+      <c r="I59" t="s">
         <v>3977</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>3978</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>3979</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>3980</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>3981</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>3982</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>3983</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>3984</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>3985</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>3986</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>3987</v>
-      </c>
-      <c r="S59" t="s">
-        <v>3988</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B60" t="s">
         <v>4026</v>
       </c>
-      <c r="B60" t="s">
-        <v>4027</v>
-      </c>
       <c r="C60" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D60">
         <v>1779</v>
       </c>
       <c r="E60" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F60" t="s">
         <v>3879</v>
@@ -15750,7 +15762,7 @@
         <v>3333</v>
       </c>
       <c r="I60" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="J60" t="s">
         <v>3331</v>
@@ -15785,58 +15797,58 @@
     </row>
     <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B61" t="s">
         <v>4028</v>
       </c>
-      <c r="B61" t="s">
-        <v>4029</v>
-      </c>
       <c r="C61" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D61">
         <v>1779</v>
       </c>
       <c r="E61" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F61" t="s">
         <v>3894</v>
       </c>
       <c r="H61" t="s">
+        <v>3976</v>
+      </c>
+      <c r="I61" t="s">
         <v>3977</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>3978</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>3979</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>3980</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>3981</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>3982</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>3983</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>3984</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>3985</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>3986</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>3987</v>
-      </c>
-      <c r="S61" t="s">
-        <v>3988</v>
       </c>
     </row>
     <row r="62" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21685,19 +21697,19 @@
     </row>
     <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B169" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C169" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D169">
         <v>1776</v>
       </c>
       <c r="E169" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F169" t="s">
         <v>3879</v>
@@ -21741,58 +21753,58 @@
     </row>
     <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B170" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C170" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D170">
         <v>1776</v>
       </c>
       <c r="E170" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F170" t="s">
         <v>3894</v>
       </c>
       <c r="H170" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="I170" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="J170" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="K170" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="L170" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="M170" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="N170" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="O170" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="P170" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="Q170" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="R170" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="S170" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="171" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27038,19 +27050,19 @@
     </row>
     <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="B264" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C264" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D264">
         <v>1777</v>
       </c>
       <c r="E264" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F264" t="s">
         <v>3879</v>
@@ -27059,7 +27071,7 @@
         <v>862</v>
       </c>
       <c r="I264" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="J264" t="s">
         <v>860</v>
@@ -27094,58 +27106,58 @@
     </row>
     <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="B265" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="C265" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D265">
         <v>1777</v>
       </c>
       <c r="E265" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F265" t="s">
         <v>3894</v>
       </c>
       <c r="H265" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I265" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="J265" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="K265" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="L265" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="M265" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="N265" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="O265" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="P265" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="Q265" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="R265" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="S265" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="266" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
